--- a/saved_margins/vnat.xlsx
+++ b/saved_margins/vnat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/128f4c0d96ea7ffd/One Drive Backup/4. SH/Paper 1/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SH\CODE\dynaampg\saved_margins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{57503B8B-D944-44BE-A5EC-5100985F3D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE0BB391-C834-492E-8FAA-46BD6BA9BFC1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF6925A-01C7-4894-AD21-81FA96B06EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{5C9C02E7-3852-43A3-AC08-318A9C4E9C7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C9C02E7-3852-43A3-AC08-318A9C4E9C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>streaming</t>
-  </si>
-  <si>
     <t>voip</t>
   </si>
   <si>
     <t>p2p</t>
   </si>
   <si>
-    <t>vpn_streaming</t>
-  </si>
-  <si>
-    <t>vpn_file_transfer</t>
-  </si>
-  <si>
     <t>vpn_p2p</t>
   </si>
   <si>
@@ -63,7 +54,16 @@
     <t>class_name</t>
   </si>
   <si>
-    <t xml:space="preserve">file_transfer </t>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>vpn_ft</t>
+  </si>
+  <si>
+    <t>vpn_stream</t>
   </si>
 </sst>
 </file>
@@ -424,81 +424,81 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>50</v>
